--- a/data/134/DEUSTATIS/Foreign trade - total_historical.xlsx
+++ b/data/134/DEUSTATIS/Foreign trade - total_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AGS5"/>
+  <dimension ref="A1:AHE5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4747,6 +4747,66 @@
           <t>2021-12</t>
         </is>
       </c>
+      <c r="AGT1" s="1" t="inlineStr">
+        <is>
+          <t>2022-01</t>
+        </is>
+      </c>
+      <c r="AGU1" s="1" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="AGV1" s="1" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="AGW1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="AGX1" s="1" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="AGY1" s="1" t="inlineStr">
+        <is>
+          <t>2022-06</t>
+        </is>
+      </c>
+      <c r="AGZ1" s="1" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
+      </c>
+      <c r="AHA1" s="1" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="AHB1" s="1" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
+      </c>
+      <c r="AHC1" s="1" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
+      </c>
+      <c r="AHD1" s="1" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+      <c r="AHE1" s="1" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -7368,16 +7428,34 @@
         <v>115134.405</v>
       </c>
       <c r="AGO2" t="n">
-        <v>104506.274</v>
+        <v>104523.686</v>
       </c>
       <c r="AGP2" t="n">
-        <v>117864.07</v>
+        <v>118169.95</v>
       </c>
       <c r="AGQ2" t="n">
-        <v>121389</v>
-      </c>
-      <c r="AGR2" t="inlineStr"/>
-      <c r="AGS2" t="inlineStr"/>
+        <v>121412.906</v>
+      </c>
+      <c r="AGR2" t="n">
+        <v>125875.298</v>
+      </c>
+      <c r="AGS2" t="n">
+        <v>116930.007</v>
+      </c>
+      <c r="AGT2" t="n">
+        <v>109343.492</v>
+      </c>
+      <c r="AGU2" t="inlineStr"/>
+      <c r="AGV2" t="inlineStr"/>
+      <c r="AGW2" t="inlineStr"/>
+      <c r="AGX2" t="inlineStr"/>
+      <c r="AGY2" t="inlineStr"/>
+      <c r="AGZ2" t="inlineStr"/>
+      <c r="AHA2" t="inlineStr"/>
+      <c r="AHB2" t="inlineStr"/>
+      <c r="AHC2" t="inlineStr"/>
+      <c r="AHD2" t="inlineStr"/>
+      <c r="AHE2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -9993,22 +10071,40 @@
         <v>97171.55499999999</v>
       </c>
       <c r="AGM3" t="n">
-        <v>102742.979</v>
+        <v>102742.976</v>
       </c>
       <c r="AGN3" t="n">
-        <v>97289.68799999999</v>
+        <v>97289.68700000001</v>
       </c>
       <c r="AGO3" t="n">
-        <v>92804.58900000001</v>
+        <v>92951.698</v>
       </c>
       <c r="AGP3" t="n">
-        <v>101881.171</v>
+        <v>102049.929</v>
       </c>
       <c r="AGQ3" t="n">
-        <v>108672.771</v>
-      </c>
-      <c r="AGR3" t="inlineStr"/>
-      <c r="AGS3" t="inlineStr"/>
+        <v>108809.445</v>
+      </c>
+      <c r="AGR3" t="n">
+        <v>114289.503</v>
+      </c>
+      <c r="AGS3" t="n">
+        <v>110319.05</v>
+      </c>
+      <c r="AGT3" t="n">
+        <v>106049.701</v>
+      </c>
+      <c r="AGU3" t="inlineStr"/>
+      <c r="AGV3" t="inlineStr"/>
+      <c r="AGW3" t="inlineStr"/>
+      <c r="AGX3" t="inlineStr"/>
+      <c r="AGY3" t="inlineStr"/>
+      <c r="AGZ3" t="inlineStr"/>
+      <c r="AHA3" t="inlineStr"/>
+      <c r="AHB3" t="inlineStr"/>
+      <c r="AHC3" t="inlineStr"/>
+      <c r="AHD3" t="inlineStr"/>
+      <c r="AHE3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -11562,28 +11658,46 @@
         <v>59256.465</v>
       </c>
       <c r="AGK4" t="n">
-        <v>51257.102</v>
+        <v>51256.214</v>
       </c>
       <c r="AGL4" t="n">
-        <v>48753.706</v>
+        <v>48752.804</v>
       </c>
       <c r="AGM4" t="n">
-        <v>53991.925</v>
+        <v>53989.731</v>
       </c>
       <c r="AGN4" t="n">
-        <v>53480.265</v>
+        <v>53477.859</v>
       </c>
       <c r="AGO4" t="n">
-        <v>48767.223</v>
+        <v>48781.501</v>
       </c>
       <c r="AGP4" t="n">
-        <v>53252.235</v>
+        <v>53443.609</v>
       </c>
       <c r="AGQ4" t="n">
-        <v>54608.552</v>
-      </c>
-      <c r="AGR4" t="inlineStr"/>
-      <c r="AGS4" t="inlineStr"/>
+        <v>54618.48</v>
+      </c>
+      <c r="AGR4" t="n">
+        <v>57758.93</v>
+      </c>
+      <c r="AGS4" t="n">
+        <v>53673.613</v>
+      </c>
+      <c r="AGT4" t="n">
+        <v>50311.098</v>
+      </c>
+      <c r="AGU4" t="inlineStr"/>
+      <c r="AGV4" t="inlineStr"/>
+      <c r="AGW4" t="inlineStr"/>
+      <c r="AGX4" t="inlineStr"/>
+      <c r="AGY4" t="inlineStr"/>
+      <c r="AGZ4" t="inlineStr"/>
+      <c r="AHA4" t="inlineStr"/>
+      <c r="AHB4" t="inlineStr"/>
+      <c r="AHC4" t="inlineStr"/>
+      <c r="AHD4" t="inlineStr"/>
+      <c r="AHE4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -13137,28 +13251,46 @@
         <v>48394.425</v>
       </c>
       <c r="AGK5" t="n">
-        <v>45688.603</v>
+        <v>45766.849</v>
       </c>
       <c r="AGL5" t="n">
-        <v>44419.243</v>
+        <v>44577.599</v>
       </c>
       <c r="AGM5" t="n">
-        <v>47564.186</v>
+        <v>47428.658</v>
       </c>
       <c r="AGN5" t="n">
-        <v>44566.082</v>
+        <v>44491.254</v>
       </c>
       <c r="AGO5" t="n">
-        <v>45797.054</v>
+        <v>45942.558</v>
       </c>
       <c r="AGP5" t="n">
-        <v>48178.299</v>
+        <v>48350.637</v>
       </c>
       <c r="AGQ5" t="n">
-        <v>50892.062</v>
-      </c>
-      <c r="AGR5" t="inlineStr"/>
-      <c r="AGS5" t="inlineStr"/>
+        <v>51120.678</v>
+      </c>
+      <c r="AGR5" t="n">
+        <v>53482.554</v>
+      </c>
+      <c r="AGS5" t="n">
+        <v>53652.258</v>
+      </c>
+      <c r="AGT5" t="n">
+        <v>54581.91</v>
+      </c>
+      <c r="AGU5" t="inlineStr"/>
+      <c r="AGV5" t="inlineStr"/>
+      <c r="AGW5" t="inlineStr"/>
+      <c r="AGX5" t="inlineStr"/>
+      <c r="AGY5" t="inlineStr"/>
+      <c r="AGZ5" t="inlineStr"/>
+      <c r="AHA5" t="inlineStr"/>
+      <c r="AHB5" t="inlineStr"/>
+      <c r="AHC5" t="inlineStr"/>
+      <c r="AHD5" t="inlineStr"/>
+      <c r="AHE5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
